--- a/docs/source/index/tables/t3b_aaontology_subcategories.xlsx
+++ b/docs/source/index/tables/t3b_aaontology_subcategories.xlsx
@@ -547,7 +547,7 @@
     <t xml:space="preserve">Measure of graph-theoretic representation of residue, defined as eigenvalue of Laplacian matrix of undirected node-weighted graph (nodes represent atoms (weighted by mass) and edges represent molecular bonds)</t>
   </si>
   <si>
-    <t xml:space="preserve">Karkbara-Knisley, 2016</t>
+    <t xml:space="preserve">Kakraba-Knisley, 2016</t>
   </si>
   <si>
     <t xml:space="preserve">Graph (2. eigenvalue)</t>
@@ -562,7 +562,7 @@
     <t xml:space="preserve">Length of side chain and graph-based size measures like eccentricity of undirected node-weighted graph (nodes represent atoms (weighted by mass) and edges represent molecular bonds)</t>
   </si>
   <si>
-    <t xml:space="preserve">Charton-Charton, 1983; Karkbara-Knisley, 2016</t>
+    <t xml:space="preserve">Charton-Charton, 1983; Kakraba-Knisley, 2016</t>
   </si>
   <si>
     <t xml:space="preserve">Reduced distance</t>
@@ -787,18 +787,19 @@
   <dimension ref="A1:E76"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D49" activeCellId="0" sqref="D49"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="27.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="130.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="38.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="9.13"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
